--- a/documentos/Requisitos-Funcionais-RFP_fpjrl-1.xlsx
+++ b/documentos/Requisitos-Funcionais-RFP_fpjrl-1.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projeto_smfp\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC8613E1-9C87-41D6-8023-E222F9082342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F234B12C-17E6-4B61-BF39-620516E92B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1635" windowWidth="15375" windowHeight="7875" xr2:uid="{46C46F77-E82F-434C-9D0D-BFF0F84F46A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{46C46F77-E82F-434C-9D0D-BFF0F84F46A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Requuisitos funcionais da RFP" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelas envolvidas " sheetId="2" r:id="rId2"/>
-    <sheet name="Descricao de conteudo das tabel" sheetId="4" r:id="rId3"/>
-    <sheet name="Cronograma" sheetId="3" r:id="rId4"/>
+    <sheet name="regras" sheetId="5" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Descricao de conteudo das tabel" sheetId="4" r:id="rId4"/>
+    <sheet name="Cronograma" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk104557250" localSheetId="0">'Requuisitos funcionais da RFP'!$G$4</definedName>
-    <definedName name="_Hlk92463696" localSheetId="0">'Requuisitos funcionais da RFP'!$G$9</definedName>
-    <definedName name="_TOC_250021" localSheetId="2">'Descricao de conteudo das tabel'!$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Requuisitos funcionais da RFP'!$D$1:$D$70</definedName>
+    <definedName name="_Hlk104557250" localSheetId="0">'Requuisitos funcionais da RFP'!$J$4</definedName>
+    <definedName name="_Hlk92463696" localSheetId="0">'Requuisitos funcionais da RFP'!$J$9</definedName>
+    <definedName name="_TOC_250021" localSheetId="3">'Descricao de conteudo das tabel'!$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="272">
   <si>
     <t>Área</t>
   </si>
@@ -131,47 +133,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Descricao processo</t>
-  </si>
-  <si>
     <t>fonte</t>
   </si>
   <si>
-    <t>Principais Tabelas envolvidas:</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>USUARIO</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabelas </t>
-  </si>
-  <si>
-    <t>Fontes</t>
-  </si>
-  <si>
     <t>Fechamento Mensal</t>
   </si>
   <si>
@@ -268,80 +232,641 @@
     <t>Cadastros</t>
   </si>
   <si>
-    <t>Cadastro funcionarios</t>
-  </si>
-  <si>
     <t>FPCD</t>
   </si>
   <si>
-    <t>Manutencao Arquivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir , alterar e excluir funcionarios com todas informacoes </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cadastro de dependentes </t>
   </si>
   <si>
     <t>FPCF</t>
   </si>
   <si>
-    <t xml:space="preserve">Incluir , alterar e excluir dependents com base na matricula do funcionario definindo a ardem do filho paela dta de nascimento  </t>
-  </si>
-  <si>
-    <t>Manutencao de dados da Ficha Financeira</t>
-  </si>
-  <si>
-    <t>Permite fazer inclusao de dados do processamento mês anterior quando o sistema não e reinicialiado , entao posso incluir vrba , valor com base na matricula e no mês do processamento.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consulta ddos acumulados </t>
   </si>
   <si>
     <t xml:space="preserve">Cadastros verbas </t>
   </si>
   <si>
-    <t xml:space="preserve">Permite incluir e Alterar e excluir eventos  (proventos e descontos) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formatacao de aruivos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Criar novas tabelas </t>
   </si>
   <si>
     <t>Formatacao de  Arquivos'</t>
   </si>
   <si>
-    <t>Funcao que cria banco de dados</t>
-  </si>
-  <si>
-    <t>FPARQ.PRG-   CRIAARQ()</t>
-  </si>
-  <si>
     <t>Todas</t>
   </si>
   <si>
     <t xml:space="preserve">sub tela criava </t>
   </si>
   <si>
-    <t xml:space="preserve">cadastro gerais, cadastro de usuario, e cadastro de ewscala de horario </t>
-  </si>
-  <si>
-    <t>Incluir , alterar e excluir , excluir usuario e criacao de escala de horario para vigilantes ou escolas.</t>
-  </si>
-  <si>
     <t>FPMANARQ para cadastrar funcionarios</t>
   </si>
   <si>
-    <t>escvale, FPMANARQ.</t>
+    <t>novo nome</t>
+  </si>
+  <si>
+    <t>TB_funcionario</t>
+  </si>
+  <si>
+    <t>Tb_depend</t>
+  </si>
+  <si>
+    <t>regras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acumulado </t>
+  </si>
+  <si>
+    <t>FPVA</t>
+  </si>
+  <si>
+    <t>TB_VERBAS</t>
+  </si>
+  <si>
+    <t>TB_ACUMULADO</t>
+  </si>
+  <si>
+    <t>FPVB</t>
+  </si>
+  <si>
+    <t>FPMR</t>
+  </si>
+  <si>
+    <t>TB_VERBAS_RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRO NIVEL ALIMENTACAO </t>
+  </si>
+  <si>
+    <t>FPRE</t>
+  </si>
+  <si>
+    <t>TB_REFEICAO</t>
+  </si>
+  <si>
+    <t>FPRES</t>
+  </si>
+  <si>
+    <t>TB_ACU_RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALORES ACUMULADOS RESCISAO </t>
+  </si>
+  <si>
+    <t>FPIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAMETROS DE ESCOLAS </t>
+  </si>
+  <si>
+    <t>PARAM</t>
+  </si>
+  <si>
+    <t>TB_PARAM</t>
+  </si>
+  <si>
+    <t>CADASTRO PARAMETROS ESCOLAS</t>
+  </si>
+  <si>
+    <t>PARAMRES</t>
+  </si>
+  <si>
+    <t>TB_PARAMRES</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>LABORE</t>
+  </si>
+  <si>
+    <t>TB_LABORE</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>CADASTRO DE MOTIVOS AFASTAM</t>
+  </si>
+  <si>
+    <t>AFASTA</t>
+  </si>
+  <si>
+    <t>TB_MOTIVOS</t>
+  </si>
+  <si>
+    <t>aIncluir := { {"01", "Inic. Empregador com justa causa"},;</t>
+  </si>
+  <si>
+    <t>                    {"02", "Inic. Empregador sem justa causa"},;</t>
+  </si>
+  <si>
+    <t>                    {"03", "Inic. Empregado  com justa causa"},;</t>
+  </si>
+  <si>
+    <t>                    {"04", "Inic. Empregado  sem justa causa"},;</t>
+  </si>
+  <si>
+    <t>                    {"05", "Transferˆncia mesma empresa"},;</t>
+  </si>
+  <si>
+    <t>                    {"06", "Aposentado"},;</t>
+  </si>
+  <si>
+    <t>                    {"07", "T‚rmino contrato de trabalho"},;</t>
+  </si>
+  <si>
+    <t>                    {"08", "Morte"},;</t>
+  </si>
+  <si>
+    <t>                    {"09", "Outros Motivos"},;</t>
+  </si>
+  <si>
+    <t>                    {"10", "Quebra de contrato de trabalho"} }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFASTAMENTO - MOTIVO ERA NO CODIGO E NA TABEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRO DE VERBAS </t>
+  </si>
+  <si>
+    <t>VERBA</t>
+  </si>
+  <si>
+    <t>ADPTADA PARA AS RECISOES E FÉRIAS DE ESCOLA E VIGILANTES REGRAS DISTINTAS DOS SINDICATOS ..</t>
+  </si>
+  <si>
+    <t>FPFER</t>
+  </si>
+  <si>
+    <t>TB_ACUMU_FER</t>
+  </si>
+  <si>
+    <t>Consulta dos acumulados Férias</t>
+  </si>
+  <si>
+    <t> Arquivo Temporario de calculo das ferias</t>
+  </si>
+  <si>
+    <t>Arquivo de Valores Acumulados</t>
+  </si>
+  <si>
+    <t>FPMFF</t>
+  </si>
+  <si>
+    <t>TB_TEMP_FER</t>
+  </si>
+  <si>
+    <t>FPMA</t>
+  </si>
+  <si>
+    <t>FPMAD</t>
+  </si>
+  <si>
+    <t>FPMAQ</t>
+  </si>
+  <si>
+    <t>FPMD</t>
+  </si>
+  <si>
+    <t>FPMS</t>
+  </si>
+  <si>
+    <t>FPMAS</t>
+  </si>
+  <si>
+    <t>FPMP</t>
+  </si>
+  <si>
+    <t>FPMV</t>
+  </si>
+  <si>
+    <t>FPM3</t>
+  </si>
+  <si>
+    <t>FP13</t>
+  </si>
+  <si>
+    <t>FPRA</t>
+  </si>
+  <si>
+    <t>FPLT</t>
+  </si>
+  <si>
+    <t>FPFU</t>
+  </si>
+  <si>
+    <t>FPBA</t>
+  </si>
+  <si>
+    <t>FPFD</t>
+  </si>
+  <si>
+    <t>FPRL</t>
+  </si>
+  <si>
+    <t>FPRLD</t>
+  </si>
+  <si>
+    <t>FPRLS</t>
+  </si>
+  <si>
+    <t>FPVR</t>
+  </si>
+  <si>
+    <t>FPMADD</t>
+  </si>
+  <si>
+    <t>FPMQ</t>
+  </si>
+  <si>
+    <t>FPV3</t>
+  </si>
+  <si>
+    <t>FPDF</t>
+  </si>
+  <si>
+    <t>FPVE</t>
+  </si>
+  <si>
+    <t>FPPS</t>
+  </si>
+  <si>
+    <t>FPHE</t>
+  </si>
+  <si>
+    <t>FPTB</t>
+  </si>
+  <si>
+    <t>FPMO</t>
+  </si>
+  <si>
+    <t>FPEMP</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRO DA EMPRESA CONTROLE USUARIO </t>
+  </si>
+  <si>
+    <t>ARQ_ACES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRO DE USUARIO E VALIDACAO </t>
+  </si>
+  <si>
+    <t>FPHORA</t>
+  </si>
+  <si>
+    <t>FPVALE</t>
+  </si>
+  <si>
+    <t>CADASTRO TIPOS DE VALE TRANSPORTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRO HORARIO P ESCALAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSTITUIR INTERACAO PONTO ELETRONICO </t>
+  </si>
+  <si>
+    <t>CADASTRO RESPONSAVEL RESCISAO</t>
+  </si>
+  <si>
+    <t>RESPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRIAR NO BANCO </t>
+  </si>
+  <si>
+    <t>Arquivo de dados do responsavel rescisao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRO DE VERBAS RESCISAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo de Verbas de Rescisao Controle de calculo de rescisao </t>
+  </si>
+  <si>
+    <t>Arquivo de Refeicao verbas de férias ??</t>
+  </si>
+  <si>
+    <t>fparq</t>
+  </si>
+  <si>
+    <t>Arquivo de Verbas de Ferias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificar </t>
+  </si>
+  <si>
+    <t>arquivo de cadastro de verba  fpvb - ( fazer uma única tabela para cadastro de verbas gerais )</t>
+  </si>
+  <si>
+    <t>TB_IRPF_ACUM</t>
+  </si>
+  <si>
+    <t>Acumulado mês a mês para gerar o informe de rendientos com ir retido na fonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulda dados Arquivo de IRF </t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>tabela de mov temporario de digitacao de producao para calcullo de comissao fabrica</t>
+  </si>
+  <si>
+    <t>Movimento temp calculo producao fabrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRIAR NO BBANCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTA DADOS ACUMULADO </t>
+  </si>
+  <si>
+    <t>TB_ACUM_RAiS</t>
+  </si>
+  <si>
+    <t>SEFIP</t>
+  </si>
+  <si>
+    <t>TB_SEFIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo de geracao mensao da Gefip </t>
+  </si>
+  <si>
+    <t>Geracao de Layout da Gefip mensal</t>
+  </si>
+  <si>
+    <t>FPMVB</t>
+  </si>
+  <si>
+    <t>CRIAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo de Movimento DIARIO, SEMANAL, MENSAL - dados para calculo da folha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo de Movimento de geracao para calculo do 13 salarios </t>
+  </si>
+  <si>
+    <t>TB_MOV_13</t>
+  </si>
+  <si>
+    <t>TB_MOV_FOLM</t>
+  </si>
+  <si>
+    <t>TB_MOV_FOLP</t>
+  </si>
+  <si>
+    <t>TB_MOV_FOLS</t>
+  </si>
+  <si>
+    <t>TB_MOV_FOLD</t>
+  </si>
+  <si>
+    <t>TB_MOV_FOLQ</t>
+  </si>
+  <si>
+    <t>CONSULTA DADOS ACUMULADO AD QUINZ</t>
+  </si>
+  <si>
+    <t>ARQUIVO TEMPORARIO DE DADOS ACUMULADO DE ADIANTAMENTO QUINZENA , ZERA QUANDO FECHA O MÊS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRO DE LOTES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAO SE APLICA MAIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo de Lotacoes( 10.00.01.00) TIPO CENTRO DE CUSTO PARA RELATORIO </t>
+  </si>
+  <si>
+    <t>CRIAR TABELA PARA CENTRO DE CUSTO COM BASE NESSA.</t>
+  </si>
+  <si>
+    <t>Arquivo com Dados do Banco da empressa</t>
+  </si>
+  <si>
+    <t>CADASTRO BANCO DA EMPRESA</t>
+  </si>
+  <si>
+    <t>TB_BANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVIMENTO LANCAMENTO SEMANAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVIMENTO LANCAMENTO DIARIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVIMENTO LANCAMENTO ?? VERIFICAR NO FONTE </t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVIMENTO QUINZENAL RESUMO </t>
+  </si>
+  <si>
+    <t>MOVIMENTO LANCAMENTO SEMANAL</t>
+  </si>
+  <si>
+    <t>Arquivo com Dados Fixos</t>
+  </si>
+  <si>
+    <t>CADASTRO DE PAARAMETROS DA EMPRESA</t>
+  </si>
+  <si>
+    <t>TB_PARAM_EMP</t>
+  </si>
+  <si>
+    <t>Cadastro funcionarios - PRINCIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geracacao E-social </t>
+  </si>
+  <si>
+    <t>TB_E-SOCIAL</t>
+  </si>
+  <si>
+    <t>FPRF</t>
+  </si>
+  <si>
+    <t>TB_MOV</t>
+  </si>
+  <si>
+    <t>MOVIMENTO LANCAM DADOS HRS PROD</t>
+  </si>
+  <si>
+    <t>VERIFICAR NO FONTE</t>
+  </si>
+  <si>
+    <t>TB_RAIS</t>
+  </si>
+  <si>
+    <t>MOVIMENTO LANCAMENTO ??</t>
+  </si>
+  <si>
+    <t>ANALISAR FONTE ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONTE </t>
+  </si>
+  <si>
+    <t>MOVIMENTO LANCAMENTO HORS PROD1</t>
+  </si>
+  <si>
+    <t>MOVIMENTO LANCAMENTO QUINZ</t>
+  </si>
+  <si>
+    <t>TB_MOV_ADD</t>
+  </si>
+  <si>
+    <t>TB_MOV_ADAC</t>
+  </si>
+  <si>
+    <t>TB_MOV_FOLACS</t>
+  </si>
+  <si>
+    <t>TB_MOV_FOLQAC</t>
+  </si>
+  <si>
+    <t>TB_MOV_ADT</t>
+  </si>
+  <si>
+    <t>MOVIEMENTO LANCAMENTO FOL DIARIA</t>
+  </si>
+  <si>
+    <t>MOVIMENTO LANCAMENTO FOL SEMANAL</t>
+  </si>
+  <si>
+    <t>MOVIMENTO LANC CALC HORAS POR PRODUCAO FABRICA</t>
+  </si>
+  <si>
+    <t>MOVIMENTO LANCAMENTO EVENTOS PRODUCAO FABRICA</t>
+  </si>
+  <si>
+    <t>MOVIMENTO GERACAO LANCAM 13er. Salario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRO DE TIPOS AFASTAMEMENTO E FUNCAO </t>
+  </si>
+  <si>
+    <t>TP_EMP_CLIENTES</t>
+  </si>
+  <si>
+    <t>TB_EMP_CONTROL</t>
+  </si>
+  <si>
+    <t>TB_USU_SEN</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>TB_HOR_ESCALA</t>
+  </si>
+  <si>
+    <t>TB_VALE</t>
+  </si>
+  <si>
+    <t>TB_RESPO_RES</t>
+  </si>
+  <si>
+    <t>Arquivo de dados da empresa GER GEFIPE</t>
+  </si>
+  <si>
+    <t>TB_EMP_GEFIPE</t>
+  </si>
+  <si>
+    <t>TB_LGEFIPE</t>
+  </si>
+  <si>
+    <t>GERACAO DADOS LAYOUT GEFIPE</t>
+  </si>
+  <si>
+    <t>CADASTRO DADOS PROLABORE</t>
+  </si>
+  <si>
+    <t>Movimentacao</t>
+  </si>
+  <si>
+    <t>Manutencao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresa </t>
+  </si>
+  <si>
+    <t>Filial</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TAGS</t>
+  </si>
+  <si>
+    <t>Acumulados</t>
+  </si>
+  <si>
+    <t>Acumulado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manutencao  </t>
+  </si>
+  <si>
+    <t>MVIMENTO LANCAMENTO ADIANT DIARIO</t>
+  </si>
+  <si>
+    <t>ACUMULADO ADIANT PARA DESC</t>
+  </si>
+  <si>
+    <t>Cria arquivo de valores acumulados da rais e gera o IRPF retido, gera informe rendimentos , férias e rescisao do ano todo.</t>
+  </si>
+  <si>
+    <t>MOVIMENTO GERA LANCAMENTO DE ADIANT</t>
+  </si>
+  <si>
+    <t>ACUMULADO FOL SEMANAL ACUM P/FCHAM SEMANAL</t>
+  </si>
+  <si>
+    <t>TB_MOV_PROD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manutencao </t>
+  </si>
+  <si>
+    <t>Movimento FOL MENSAL NORMAL</t>
+  </si>
+  <si>
+    <t>Refernte a 13 salario</t>
+  </si>
+  <si>
+    <t>FPARQ.PRG-   CRIAARQ(), Escvale, fpmanarq</t>
+  </si>
+  <si>
+    <t>cadastro gerais, cadastro de usuario, e cadastro de escala e horarios</t>
+  </si>
+  <si>
+    <t>id emp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,32 +903,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -436,13 +935,79 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE6E6E6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF676B79"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE6E6E6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -466,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -486,19 +1051,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,8 +1064,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,10 +1074,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -532,6 +1088,47 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,31 +1444,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29EA789-B902-49A8-856A-CD0F6248DC20}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="79.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="114" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -880,8 +1489,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -895,573 +1507,1556 @@
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="I6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="H51" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="E52" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="H58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D70" xr:uid="{D29EA789-B902-49A8-856A-CD0F6248DC20}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A03B97-8DEB-4A7C-B981-DB428B24DBA6}">
-  <dimension ref="B3:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700ECAB7-D2ED-4726-9AED-226DE5920E41}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1469,11 +3064,381 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4372D06F-0C44-4933-8CDD-14237C664C92}">
+  <dimension ref="A6:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FFBC01-5E54-46EF-9A69-648C269DC60B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,14 +3448,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
@@ -1501,62 +3466,62 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
+      <c r="B24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1564,7 +3529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F574A9B-6D67-4526-B1A7-02A97108EDE3}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -1579,28 +3544,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>45</v>
+      <c r="B2" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -1612,61 +3577,61 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1696,21 +3661,21 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,10 +3694,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1740,10 +3705,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
